--- a/public/temp/import_section.xlsx
+++ b/public/temp/import_section.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB1975F-A815-49A5-A19D-638DCBCAD550}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,23 +24,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>章/节名称</t>
-  </si>
-  <si>
-    <t>排序值</t>
-  </si>
-  <si>
     <t>视频ID</t>
   </si>
   <si>
     <t>状态(上架，下架，隐藏）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>节名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节排序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -47,6 +55,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -59,6 +68,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -85,7 +95,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -98,6 +108,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -107,6 +120,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -155,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +204,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +256,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -412,17 +462,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="4" t="s">
+        <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
@@ -463,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -477,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
